--- a/Uniform Law of procrastination.xlsx
+++ b/Uniform Law of procrastination.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josbe\Dropbox\Jos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45640D-25B0-4B50-98B6-9F04043E7449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB83E6A-D865-47C3-A7B9-095589FE6F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10F53077-DA1B-4696-952C-927DBD8F6302}"/>
+    <workbookView xWindow="435" yWindow="1920" windowWidth="28365" windowHeight="13560" xr2:uid="{10F53077-DA1B-4696-952C-927DBD8F6302}"/>
   </bookViews>
   <sheets>
     <sheet name="Procrastination" sheetId="1" r:id="rId1"/>
+    <sheet name="Twitter" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="CC">Procrastination!$J$3</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>https://physicstoday.scitation.org/doi/10.1063/PT.3.3064#:~:text=According%20to%20the%20universal%20law,at%20t%3DD%2BC.</t>
   </si>
@@ -71,12 +72,6 @@
     <t>so you expect 20/0.0833 = 240 people will have responded after day 10</t>
   </si>
   <si>
-    <t>SIMPLE (1/t)</t>
-  </si>
-  <si>
-    <t>(1/t)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of days ahead at the start D = </t>
   </si>
   <si>
@@ -92,10 +87,37 @@
     <t>you set out a survey; people have to reply within 10 days; D=10</t>
   </si>
   <si>
-    <t xml:space="preserve">Procrastination Formula </t>
+    <t>Source:</t>
   </si>
   <si>
-    <t>Source:</t>
+    <t>Rule of Thumb</t>
+  </si>
+  <si>
+    <t>1/(D-t+1)</t>
+  </si>
+  <si>
+    <t>Procrastination Formula | Universal Law of Procrastination (ULP)</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>THX!</t>
+  </si>
+  <si>
+    <t>Simplified Law with roughly the same outcome:</t>
+  </si>
+  <si>
+    <t>N(t)= t.M/(D*(D-t+1)) (C excluded)</t>
+  </si>
+  <si>
+    <t>Or (cumulative) Percentage of final expected proposals submitted M, at time (t):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(t) = t/(D*(D-t+1)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With: D = number of days of submission window </t>
   </si>
 </sst>
 </file>
@@ -105,12 +127,12 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="#,##0.0000_ ;\-#,##0.0000\ "/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000_ ;\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +169,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -216,16 +246,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -236,9 +266,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -596,7 +627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SIMPLE (1/t)</c:v>
+                  <c:v>Rule of Thumb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2233,7 +2264,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2248,10 +2279,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
         <v>21</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -2262,7 +2293,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7">
         <v>10</v>
@@ -2286,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>4</v>
@@ -2297,16 +2328,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2323,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <f>IF(D&gt;=$A8,1/(D-$A8+1),NA())</f>
+        <f t="shared" ref="C8:C38" si="1">IF(D&gt;=$A8,1/(D-$A8+1),NA())</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="D8" s="10">
-        <f>IF(D&gt;=$A8,$A8/(D*(D-$A8+1)),NA())</f>
+        <f t="shared" ref="D8:D38" si="2">IF(D&gt;=$A8,$A8/(D*(D-$A8+1)),NA())</f>
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3">
-        <f>IF(D&gt;=$A8,$A8*M/(D*(D-$A8+1)),NA())</f>
+        <f t="shared" ref="F8:F38" si="3">IF(D&gt;=$A8,$A8*M/(D*(D-$A8+1)),NA())</f>
         <v>0</v>
       </c>
     </row>
@@ -2346,22 +2377,22 @@
         <v>9.2383260637024095E-3</v>
       </c>
       <c r="C9" s="10">
-        <f>IF(D&gt;=$A9,1/(D-$A9+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="D9" s="10">
-        <f>IF(D&gt;=$A9,$A9/(D*(D-$A9+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
-        <f>IF(D&gt;=$A9,$A9*M/(D*(D-$A9+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A38" si="1">A9+1</f>
+        <f t="shared" ref="A10:A38" si="4">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="10">
@@ -2369,22 +2400,22 @@
         <v>2.0548936424639022E-2</v>
       </c>
       <c r="C10" s="10">
-        <f>IF(D&gt;=$A10,1/(D-$A10+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="D10" s="10">
-        <f>IF(D&gt;=$A10,$A10/(D*(D-$A10+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3">
-        <f>IF(D&gt;=$A10,$A10*M/(D*(D-$A10+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B11" s="10">
@@ -2392,22 +2423,22 @@
         <v>3.4717175983574391E-2</v>
       </c>
       <c r="C11" s="10">
-        <f>IF(D&gt;=$A11,1/(D-$A11+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="D11" s="10">
-        <f>IF(D&gt;=$A11,$A11/(D*(D-$A11+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3">
-        <f>IF(D&gt;=$A11,$A11*M/(D*(D-$A11+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B12" s="10">
@@ -2415,22 +2446,22 @@
         <v>5.298260354590946E-2</v>
       </c>
       <c r="C12" s="10">
-        <f>IF(D&gt;=$A12,1/(D-$A12+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="D12" s="10">
-        <f>IF(D&gt;=$A12,$A12/(D*(D-$A12+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3">
-        <f>IF(D&gt;=$A12,$A12*M/(D*(D-$A12+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>13.714285714285714</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B13" s="10">
@@ -2438,22 +2469,22 @@
         <v>7.7422872635741699E-2</v>
       </c>
       <c r="C13" s="10">
-        <f>IF(D&gt;=$A13,1/(D-$A13+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D13" s="10">
-        <f>IF(D&gt;=$A13,$A13/(D*(D-$A13+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
-        <f>IF(D&gt;=$A13,$A13*M/(D*(D-$A13+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B14" s="10">
@@ -2461,22 +2492,22 @@
         <v>0.11180613295767415</v>
       </c>
       <c r="C14" s="10">
-        <f>IF(D&gt;=$A14,1/(D-$A14+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="D14" s="10">
-        <f>IF(D&gt;=$A14,$A14/(D*(D-$A14+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3">
-        <f>IF(D&gt;=$A14,$A14*M/(D*(D-$A14+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>28.8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B15" s="10">
@@ -2484,22 +2515,22 @@
         <v>0.16374943404809056</v>
       </c>
       <c r="C15" s="10">
-        <f>IF(D&gt;=$A15,1/(D-$A15+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="D15" s="10">
-        <f>IF(D&gt;=$A15,$A15/(D*(D-$A15+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3">
-        <f>IF(D&gt;=$A15,$A15*M/(D*(D-$A15+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B16" s="10">
@@ -2507,22 +2538,22 @@
         <v>0.25131816719386979</v>
       </c>
       <c r="C16" s="10">
-        <f>IF(D&gt;=$A16,1/(D-$A16+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D16" s="10">
-        <f>IF(D&gt;=$A16,$A16/(D*(D-$A16+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3">
-        <f>IF(D&gt;=$A16,$A16*M/(D*(D-$A16+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B17" s="10">
@@ -2530,22 +2561,22 @@
         <v>0.4302909576426498</v>
       </c>
       <c r="C17" s="10">
-        <f>IF(D&gt;=$A17,1/(D-$A17+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="D17" s="10">
-        <f>IF(D&gt;=$A17,$A17/(D*(D-$A17+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
-        <f>IF(D&gt;=$A17,$A17*M/(D*(D-$A17+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B18" s="10">
@@ -2553,22 +2584,22 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="C18" s="10">
-        <f>IF(D&gt;=$A18,1/(D-$A18+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D18" s="10">
-        <f>IF(D&gt;=$A18,$A18/(D*(D-$A18+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3">
-        <f>IF(D&gt;=$A18,$A18*M/(D*(D-$A18+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B19" s="10" t="e">
@@ -2576,22 +2607,22 @@
         <v>#N/A</v>
       </c>
       <c r="C19" s="10" t="e">
-        <f>IF(D&gt;=$A19,1/(D-$A19+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D19" s="10" t="e">
-        <f>IF(D&gt;=$A19,$A19/(D*(D-$A19+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="e">
-        <f>IF(D&gt;=$A19,$A19*M/(D*(D-$A19+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B20" s="10" t="e">
@@ -2599,22 +2630,22 @@
         <v>#N/A</v>
       </c>
       <c r="C20" s="10" t="e">
-        <f>IF(D&gt;=$A20,1/(D-$A20+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D20" s="10" t="e">
-        <f>IF(D&gt;=$A20,$A20/(D*(D-$A20+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="e">
-        <f>IF(D&gt;=$A20,$A20*M/(D*(D-$A20+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B21" s="10" t="e">
@@ -2622,22 +2653,22 @@
         <v>#N/A</v>
       </c>
       <c r="C21" s="10" t="e">
-        <f>IF(D&gt;=$A21,1/(D-$A21+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D21" s="10" t="e">
-        <f>IF(D&gt;=$A21,$A21/(D*(D-$A21+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="e">
-        <f>IF(D&gt;=$A21,$A21*M/(D*(D-$A21+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B22" s="10" t="e">
@@ -2645,22 +2676,22 @@
         <v>#N/A</v>
       </c>
       <c r="C22" s="10" t="e">
-        <f>IF(D&gt;=$A22,1/(D-$A22+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D22" s="10" t="e">
-        <f>IF(D&gt;=$A22,$A22/(D*(D-$A22+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="e">
-        <f>IF(D&gt;=$A22,$A22*M/(D*(D-$A22+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B23" s="10" t="e">
@@ -2668,22 +2699,22 @@
         <v>#N/A</v>
       </c>
       <c r="C23" s="10" t="e">
-        <f>IF(D&gt;=$A23,1/(D-$A23+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D23" s="10" t="e">
-        <f>IF(D&gt;=$A23,$A23/(D*(D-$A23+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="e">
-        <f>IF(D&gt;=$A23,$A23*M/(D*(D-$A23+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B24" s="10" t="e">
@@ -2691,22 +2722,22 @@
         <v>#N/A</v>
       </c>
       <c r="C24" s="10" t="e">
-        <f>IF(D&gt;=$A24,1/(D-$A24+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D24" s="10" t="e">
-        <f>IF(D&gt;=$A24,$A24/(D*(D-$A24+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="e">
-        <f>IF(D&gt;=$A24,$A24*M/(D*(D-$A24+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B25" s="10" t="e">
@@ -2714,22 +2745,22 @@
         <v>#N/A</v>
       </c>
       <c r="C25" s="10" t="e">
-        <f>IF(D&gt;=$A25,1/(D-$A25+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D25" s="10" t="e">
-        <f>IF(D&gt;=$A25,$A25/(D*(D-$A25+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="e">
-        <f>IF(D&gt;=$A25,$A25*M/(D*(D-$A25+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B26" s="10" t="e">
@@ -2737,22 +2768,22 @@
         <v>#N/A</v>
       </c>
       <c r="C26" s="10" t="e">
-        <f>IF(D&gt;=$A26,1/(D-$A26+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D26" s="10" t="e">
-        <f>IF(D&gt;=$A26,$A26/(D*(D-$A26+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="e">
-        <f>IF(D&gt;=$A26,$A26*M/(D*(D-$A26+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B27" s="10" t="e">
@@ -2760,23 +2791,23 @@
         <v>#N/A</v>
       </c>
       <c r="C27" s="10" t="e">
-        <f>IF(D&gt;=$A27,1/(D-$A27+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D27" s="10" t="e">
-        <f>IF(D&gt;=$A27,$A27/(D*(D-$A27+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="e">
-        <f>IF(D&gt;=$A27,$A27*M/(D*(D-$A27+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B28" s="10" t="e">
@@ -2784,16 +2815,16 @@
         <v>#N/A</v>
       </c>
       <c r="C28" s="10" t="e">
-        <f>IF(D&gt;=$A28,1/(D-$A28+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D28" s="10" t="e">
-        <f>IF(D&gt;=$A28,$A28/(D*(D-$A28+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="e">
-        <f>IF(D&gt;=$A28,$A28*M/(D*(D-$A28+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J28" s="11" t="s">
@@ -2802,7 +2833,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B29" s="10" t="e">
@@ -2810,25 +2841,25 @@
         <v>#N/A</v>
       </c>
       <c r="C29" s="10" t="e">
-        <f>IF(D&gt;=$A29,1/(D-$A29+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D29" s="10" t="e">
-        <f>IF(D&gt;=$A29,$A29/(D*(D-$A29+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="e">
-        <f>IF(D&gt;=$A29,$A29*M/(D*(D-$A29+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B30" s="10" t="e">
@@ -2836,16 +2867,16 @@
         <v>#N/A</v>
       </c>
       <c r="C30" s="10" t="e">
-        <f>IF(D&gt;=$A30,1/(D-$A30+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D30" s="10" t="e">
-        <f>IF(D&gt;=$A30,$A30/(D*(D-$A30+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="e">
-        <f>IF(D&gt;=$A30,$A30*M/(D*(D-$A30+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J30" t="s">
@@ -2854,7 +2885,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B31" s="10" t="e">
@@ -2862,16 +2893,16 @@
         <v>#N/A</v>
       </c>
       <c r="C31" s="10" t="e">
-        <f>IF(D&gt;=$A31,1/(D-$A31+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D31" s="10" t="e">
-        <f>IF(D&gt;=$A31,$A31/(D*(D-$A31+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="e">
-        <f>IF(D&gt;=$A31,$A31*M/(D*(D-$A31+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J31" t="s">
@@ -2880,7 +2911,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B32" s="10" t="e">
@@ -2888,22 +2919,22 @@
         <v>#N/A</v>
       </c>
       <c r="C32" s="10" t="e">
-        <f>IF(D&gt;=$A32,1/(D-$A32+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D32" s="10" t="e">
-        <f>IF(D&gt;=$A32,$A32/(D*(D-$A32+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="e">
-        <f>IF(D&gt;=$A32,$A32*M/(D*(D-$A32+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B33" s="10" t="e">
@@ -2911,16 +2942,16 @@
         <v>#N/A</v>
       </c>
       <c r="C33" s="10" t="e">
-        <f>IF(D&gt;=$A33,1/(D-$A33+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D33" s="10" t="e">
-        <f>IF(D&gt;=$A33,$A33/(D*(D-$A33+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="e">
-        <f>IF(D&gt;=$A33,$A33*M/(D*(D-$A33+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J33" t="s">
@@ -2929,7 +2960,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B34" s="10" t="e">
@@ -2937,16 +2968,16 @@
         <v>#N/A</v>
       </c>
       <c r="C34" s="10" t="e">
-        <f>IF(D&gt;=$A34,1/(D-$A34+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D34" s="10" t="e">
-        <f>IF(D&gt;=$A34,$A34/(D*(D-$A34+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="e">
-        <f>IF(D&gt;=$A34,$A34*M/(D*(D-$A34+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J34" t="s">
@@ -2955,7 +2986,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B35" s="10" t="e">
@@ -2963,16 +2994,16 @@
         <v>#N/A</v>
       </c>
       <c r="C35" s="10" t="e">
-        <f>IF(D&gt;=$A35,1/(D-$A35+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D35" s="10" t="e">
-        <f>IF(D&gt;=$A35,$A35/(D*(D-$A35+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="e">
-        <f>IF(D&gt;=$A35,$A35*M/(D*(D-$A35+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J35" t="s">
@@ -2981,7 +3012,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B36" s="10" t="e">
@@ -2989,22 +3020,22 @@
         <v>#N/A</v>
       </c>
       <c r="C36" s="10" t="e">
-        <f>IF(D&gt;=$A36,1/(D-$A36+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D36" s="10" t="e">
-        <f>IF(D&gt;=$A36,$A36/(D*(D-$A36+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="e">
-        <f>IF(D&gt;=$A36,$A36*M/(D*(D-$A36+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B37" s="10" t="e">
@@ -3012,22 +3043,22 @@
         <v>#N/A</v>
       </c>
       <c r="C37" s="10" t="e">
-        <f>IF(D&gt;=$A37,1/(D-$A37+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D37" s="10" t="e">
-        <f>IF(D&gt;=$A37,$A37/(D*(D-$A37+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="e">
-        <f>IF(D&gt;=$A37,$A37*M/(D*(D-$A37+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B38" s="10" t="e">
@@ -3035,16 +3066,16 @@
         <v>#N/A</v>
       </c>
       <c r="C38" s="10" t="e">
-        <f>IF(D&gt;=$A38,1/(D-$A38+1),NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="D38" s="10" t="e">
-        <f>IF(D&gt;=$A38,$A38/(D*(D-$A38+1)),NA())</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="e">
-        <f>IF(D&gt;=$A38,$A38*M/(D*(D-$A38+1)),NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3057,4 +3088,58 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8EFBAE-5E91-4200-BFC8-63EDF232206E}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="B12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{A238C4E7-3F6E-435A-B77B-263BCF93898D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>